--- a/Data/emp_data1.xlsx
+++ b/Data/emp_data1.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BF62B-DC33-4DAC-84B0-75362175A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Tabelle1" state="visible" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -37,14 +41,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -413,14 +417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10572196</v>
       </c>
@@ -448,7 +452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10512137</v>
       </c>
